--- a/part2_exploratory_analysis/hypothesis_testing/data_driving_predictive_models/NaiveBayesPredictResults.xlsx
+++ b/part2_exploratory_analysis/hypothesis_testing/data_driving_predictive_models/NaiveBayesPredictResults.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -216,6 +216,978 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>ROC</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.406715223097113"/>
+          <c:y val="0.037037037037037"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.127490039840637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0836363636363636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.135135135135135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.124555160142349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0795454545454545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.144404332129964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.126811594202899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.109433962264151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0783582089552239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.872509960159363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.916363636363636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.864864864864865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.893238434163701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.920454545454545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.855595667870036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.873188405797101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.890566037735849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.921641791044776</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2107151008"/>
+        <c:axId val="2107300176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2107151008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2107300176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2107300176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2107151008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,10 +1453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G12"/>
+      <selection activeCell="G14" sqref="F3:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,37 +1494,20 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3">
-        <v>0.88148150000000003</v>
-      </c>
-      <c r="D3">
-        <v>0.1046657</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F3">
-        <f>32/251</f>
-        <v>0.12749003984063745</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <f>219/251</f>
-        <v>0.87250996015936255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4">
         <v>0.88148150000000003</v>
@@ -561,48 +1516,48 @@
         <v>0.1046657</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4">
-        <f>23/275</f>
-        <v>8.3636363636363634E-2</v>
+        <f>32/251</f>
+        <v>0.12749003984063745</v>
       </c>
       <c r="G4">
-        <f>252/275</f>
-        <v>0.91636363636363638</v>
+        <f>219/251</f>
+        <v>0.87250996015936255</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5">
-        <v>0.87407409999999996</v>
+        <v>0.88148150000000003</v>
       </c>
       <c r="D5">
-        <v>0.1102728</v>
+        <v>0.1046657</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5">
-        <f>35/259</f>
-        <v>0.13513513513513514</v>
+        <f>23/275</f>
+        <v>8.3636363636363634E-2</v>
       </c>
       <c r="G5">
-        <f>224/259</f>
-        <v>0.86486486486486491</v>
+        <f>252/275</f>
+        <v>0.91636363636363638</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6">
         <v>0.87407409999999996</v>
@@ -611,148 +1566,148 @@
         <v>0.1102728</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <f>35/281</f>
-        <v>0.12455516014234876</v>
+        <f>35/259</f>
+        <v>0.13513513513513514</v>
       </c>
       <c r="G6">
-        <f>251/281</f>
-        <v>0.89323843416370108</v>
+        <f>224/259</f>
+        <v>0.86486486486486491</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>0.89444440000000003</v>
+        <v>0.87407409999999996</v>
       </c>
       <c r="D7">
-        <v>9.4588740000000004E-2</v>
+        <v>0.1102728</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <f>21/264</f>
-        <v>7.9545454545454544E-2</v>
+        <f>35/281</f>
+        <v>0.12455516014234876</v>
       </c>
       <c r="G7">
-        <f>243/264</f>
-        <v>0.92045454545454541</v>
+        <f>251/281</f>
+        <v>0.89323843416370108</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>0.86666670000000001</v>
+        <v>0.89444440000000003</v>
       </c>
       <c r="D8">
-        <v>0.1157699</v>
+        <v>9.4588740000000004E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8">
-        <f>40/277</f>
-        <v>0.1444043321299639</v>
+        <f>21/264</f>
+        <v>7.9545454545454544E-2</v>
       </c>
       <c r="G8">
-        <f>237/277</f>
-        <v>0.85559566787003605</v>
+        <f>243/264</f>
+        <v>0.92045454545454541</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>0.85740740000000004</v>
+        <v>0.86666670000000001</v>
       </c>
       <c r="D9">
-        <v>0.12248680000000001</v>
+        <v>0.1157699</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9">
-        <f>35/276</f>
-        <v>0.12681159420289856</v>
+        <f>40/277</f>
+        <v>0.1444043321299639</v>
       </c>
       <c r="G9">
-        <f>241/276</f>
-        <v>0.87318840579710144</v>
+        <f>237/277</f>
+        <v>0.85559566787003605</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10">
-        <v>0.85925929999999995</v>
+        <v>0.85740740000000004</v>
       </c>
       <c r="D10">
-        <v>0.1211571</v>
+        <v>0.12248680000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10">
-        <f>29/265</f>
-        <v>0.10943396226415095</v>
+        <f>35/276</f>
+        <v>0.12681159420289856</v>
       </c>
       <c r="G10">
-        <f>236/265</f>
-        <v>0.89056603773584908</v>
+        <f>241/276</f>
+        <v>0.87318840579710144</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>0.85925929999999995</v>
       </c>
       <c r="D11">
-        <v>9.0166979999999994E-2</v>
+        <v>0.1211571</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11">
-        <f>21/268</f>
-        <v>7.8358208955223885E-2</v>
+        <f>29/265</f>
+        <v>0.10943396226415095</v>
       </c>
       <c r="G11">
-        <f>247/268</f>
-        <v>0.92164179104477617</v>
+        <f>236/265</f>
+        <v>0.89056603773584908</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>0.9</v>
@@ -761,36 +1716,72 @@
         <v>9.0166979999999994E-2</v>
       </c>
       <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12">
+        <f>21/268</f>
+        <v>7.8358208955223885E-2</v>
+      </c>
+      <c r="G12">
+        <f>247/268</f>
+        <v>0.92164179104477617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
+        <v>9.0166979999999994E-2</v>
+      </c>
+      <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f>27/288</f>
         <v>9.375E-2</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <f>261/288</f>
         <v>0.90625</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <f>AVERAGE(C3:C12)</f>
+      <c r="C15">
+        <f>AVERAGE(C4:C13)</f>
         <v>0.87888890000000008</v>
       </c>
-      <c r="D13">
-        <f>AVERAGE(D3:D12)</f>
+      <c r="D15">
+        <f>AVERAGE(D4:D13)</f>
         <v>0.10642135</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/part2_exploratory_analysis/hypothesis_testing/data_driving_predictive_models/NaiveBayesPredictResults.xlsx
+++ b/part2_exploratory_analysis/hypothesis_testing/data_driving_predictive_models/NaiveBayesPredictResults.xlsx
@@ -232,18 +232,231 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:alpha val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="4"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$3:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.127490039840637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0836363636363636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.135135135135135</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.124555160142349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0795454545454545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.144404332129964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.126811594202899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.109433962264151</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0783582089552239</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.09375</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.872509960159363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.916363636363636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.864864864864865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.893238434163701</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.920454545454545</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.855595667870036</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.873188405797101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.890566037735849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.921641791044776</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.90625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2145200544"/>
+        <c:axId val="2039666880"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2145200544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="50000"/>
+                      <a:lumOff val="50000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -251,22 +464,94 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>ROC</a:t>
-            </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.406715223097113"/>
-          <c:y val="0.037037037037037"/>
-        </c:manualLayout>
-      </c:layout>
+        </c:txPr>
+        <c:crossAx val="2039666880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2039666880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2145200544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -280,11 +565,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -295,284 +580,31 @@
           <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$3:$F$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.127490039840637</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.0836363636363636</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.135135135135135</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.124555160142349</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0795454545454545</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.144404332129964</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.126811594202899</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.109433962264151</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0783582089552239</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.09375</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$3:$G$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.872509960159363</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.916363636363636</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.864864864864865</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.893238434163701</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.920454545454545</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.855595667870036</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.873188405797101</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.890566037735849</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.921641791044776</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.90625</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2107151008"/>
-        <c:axId val="2107300176"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2107151008"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2107300176"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2107300176"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2107151008"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="43000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -640,56 +672,33 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="244">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -697,16 +706,52 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="43000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -723,16 +768,11 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -741,39 +781,50 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
+      <a:ln w="28575">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="20000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointLine>
@@ -781,7 +832,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -789,14 +840,18 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -804,7 +859,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -820,16 +875,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -853,14 +907,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -872,14 +925,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -891,14 +943,13 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -909,12 +960,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -926,7 +971,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -945,7 +990,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
@@ -962,156 +1007,164 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="0" kern="1200" spc="70" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="63500" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="50000"/>
             <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1120,22 +1173,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1145,12 +1187,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1160,15 +1196,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1456,7 +1492,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="F3:G14"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
